--- a/results/Rx5.xlsx
+++ b/results/Rx5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sx5standings\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB44B0FB-EF30-430B-80B7-015E1EE8F7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E33879-7F5A-4FAB-93B9-918712E1ECB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="233">
   <si>
     <r>
       <rPr>
@@ -2303,6 +2303,9 @@
       </rPr>
       <t>Pos</t>
     </r>
+  </si>
+  <si>
+    <t>Gender</t>
   </si>
 </sst>
 </file>
@@ -2312,7 +2315,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2355,6 +2358,13 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2391,7 +2401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2418,6 +2428,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2757,10 +2770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J108"/>
+  <dimension ref="A1:K108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2774,9 +2787,10 @@
     <col min="8" max="8" width="17.33203125" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>225</v>
       </c>
@@ -2807,8 +2821,11 @@
       <c r="J1" s="7" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2838,8 +2855,12 @@
         <f>TEXT(F2,"hh:mm:ss")</f>
         <v>00:18:56</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="9" t="str">
+        <f>IF(LEFT(D2,1)="M","M","F")</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2869,8 +2890,12 @@
         <f t="shared" ref="J3:J66" si="0">TEXT(F3,"hh:mm:ss")</f>
         <v>00:19:03</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="9" t="str">
+        <f t="shared" ref="K3:K66" si="1">IF(LEFT(D3,1)="M","M","F")</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -2900,8 +2925,12 @@
         <f t="shared" si="0"/>
         <v>00:20:00</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -2933,8 +2962,12 @@
         <f t="shared" si="0"/>
         <v>00:20:17</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2964,8 +2997,12 @@
         <f t="shared" si="0"/>
         <v>00:20:24</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -2997,8 +3034,12 @@
         <f t="shared" si="0"/>
         <v>00:20:29</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -3028,8 +3069,12 @@
         <f t="shared" si="0"/>
         <v>00:21:21</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -3061,8 +3106,12 @@
         <f t="shared" si="0"/>
         <v>00:21:28</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -3092,8 +3141,12 @@
         <f t="shared" si="0"/>
         <v>00:21:30</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -3123,8 +3176,12 @@
         <f t="shared" si="0"/>
         <v>00:22:10</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -3156,8 +3213,12 @@
         <f t="shared" si="0"/>
         <v>00:22:19</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -3189,8 +3250,12 @@
         <f t="shared" si="0"/>
         <v>00:22:20</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
@@ -3222,8 +3287,12 @@
         <f t="shared" si="0"/>
         <v>00:22:27</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -3255,8 +3324,12 @@
         <f t="shared" si="0"/>
         <v>00:22:29</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
@@ -3286,8 +3359,12 @@
         <f t="shared" si="0"/>
         <v>00:22:34</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -3317,8 +3394,12 @@
         <f t="shared" si="0"/>
         <v>00:22:40</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K17" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
@@ -3350,8 +3431,12 @@
         <f t="shared" si="0"/>
         <v>00:22:47</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>45</v>
       </c>
@@ -3383,8 +3468,12 @@
         <f t="shared" si="0"/>
         <v>00:23:09</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>48</v>
       </c>
@@ -3414,8 +3503,12 @@
         <f t="shared" si="0"/>
         <v>00:23:18</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K20" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>50</v>
       </c>
@@ -3447,8 +3540,12 @@
         <f t="shared" si="0"/>
         <v>00:23:30</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K21" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>53</v>
       </c>
@@ -3480,8 +3577,12 @@
         <f t="shared" si="0"/>
         <v>00:23:37</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K22" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>56</v>
       </c>
@@ -3511,8 +3612,12 @@
         <f t="shared" si="0"/>
         <v>00:23:41</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>58</v>
       </c>
@@ -3542,8 +3647,12 @@
         <f t="shared" si="0"/>
         <v>00:23:47</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K24" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>60</v>
       </c>
@@ -3575,8 +3684,12 @@
         <f t="shared" si="0"/>
         <v>00:23:50</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K25" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>62</v>
       </c>
@@ -3608,8 +3721,12 @@
         <f t="shared" si="0"/>
         <v>00:23:56</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>63</v>
       </c>
@@ -3639,8 +3756,12 @@
         <f t="shared" si="0"/>
         <v>00:24:02</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K27" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>65</v>
       </c>
@@ -3670,8 +3791,12 @@
         <f t="shared" si="0"/>
         <v>00:24:05</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K28" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>67</v>
       </c>
@@ -3703,8 +3828,12 @@
         <f t="shared" si="0"/>
         <v>00:24:07</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K29" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>70</v>
       </c>
@@ -3736,8 +3865,12 @@
         <f t="shared" si="0"/>
         <v>00:24:18</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K30" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>73</v>
       </c>
@@ -3767,8 +3900,12 @@
         <f t="shared" si="0"/>
         <v>00:24:21</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K31" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>75</v>
       </c>
@@ -3798,8 +3935,12 @@
         <f t="shared" si="0"/>
         <v>00:24:29</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K32" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>67</v>
       </c>
@@ -3831,8 +3972,12 @@
         <f t="shared" si="0"/>
         <v>00:24:40</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K33" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>78</v>
       </c>
@@ -3862,8 +4007,12 @@
         <f t="shared" si="0"/>
         <v>00:24:43</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K34" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>80</v>
       </c>
@@ -3893,8 +4042,12 @@
         <f t="shared" si="0"/>
         <v>00:24:47</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K35" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>82</v>
       </c>
@@ -3924,8 +4077,12 @@
         <f t="shared" si="0"/>
         <v>00:24:49</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K36" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>84</v>
       </c>
@@ -3955,8 +4112,12 @@
         <f t="shared" si="0"/>
         <v>00:24:55</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K37" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>87</v>
       </c>
@@ -3988,8 +4149,12 @@
         <f t="shared" si="0"/>
         <v>00:25:01</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K38" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>90</v>
       </c>
@@ -4019,8 +4184,12 @@
         <f t="shared" si="0"/>
         <v>00:25:04</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K39" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>92</v>
       </c>
@@ -4052,8 +4221,12 @@
         <f t="shared" si="0"/>
         <v>00:25:04</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K40" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>82</v>
       </c>
@@ -4085,8 +4258,12 @@
         <f t="shared" si="0"/>
         <v>00:25:12</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K41" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>97</v>
       </c>
@@ -4116,8 +4293,12 @@
         <f t="shared" si="0"/>
         <v>00:25:34</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K42" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>99</v>
       </c>
@@ -4147,8 +4328,12 @@
         <f t="shared" si="0"/>
         <v>00:25:43</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K43" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>62</v>
       </c>
@@ -4178,8 +4363,12 @@
         <f t="shared" si="0"/>
         <v>00:25:45</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K44" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>100</v>
       </c>
@@ -4209,8 +4398,12 @@
         <f t="shared" si="0"/>
         <v>00:25:50</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K45" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>58</v>
       </c>
@@ -4240,8 +4433,12 @@
         <f t="shared" si="0"/>
         <v>00:26:04</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K46" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>29</v>
       </c>
@@ -4271,8 +4468,12 @@
         <f t="shared" si="0"/>
         <v>00:26:43</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K47" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>104</v>
       </c>
@@ -4304,8 +4505,12 @@
         <f t="shared" si="0"/>
         <v>00:26:46</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K48" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>107</v>
       </c>
@@ -4335,8 +4540,12 @@
         <f t="shared" si="0"/>
         <v>00:26:58</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K49" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>109</v>
       </c>
@@ -4366,8 +4575,12 @@
         <f t="shared" si="0"/>
         <v>00:27:10</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K50" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>111</v>
       </c>
@@ -4397,8 +4610,12 @@
         <f t="shared" si="0"/>
         <v>00:27:14</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K51" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>113</v>
       </c>
@@ -4428,8 +4645,12 @@
         <f t="shared" si="0"/>
         <v>00:27:18</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K52" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>115</v>
       </c>
@@ -4461,8 +4682,12 @@
         <f t="shared" si="0"/>
         <v>00:27:21</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K53" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>117</v>
       </c>
@@ -4492,8 +4717,12 @@
         <f t="shared" si="0"/>
         <v>00:27:26</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K54" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>0</v>
       </c>
@@ -4525,8 +4754,12 @@
         <f t="shared" si="0"/>
         <v>00:27:54</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K55" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>120</v>
       </c>
@@ -4556,8 +4789,12 @@
         <f t="shared" si="0"/>
         <v>00:27:57</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K56" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>122</v>
       </c>
@@ -4587,8 +4824,12 @@
         <f t="shared" si="0"/>
         <v>00:28:15</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K57" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>124</v>
       </c>
@@ -4620,8 +4861,12 @@
         <f t="shared" si="0"/>
         <v>00:28:16</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K58" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>82</v>
       </c>
@@ -4651,8 +4896,12 @@
         <f t="shared" si="0"/>
         <v>00:28:21</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K59" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>127</v>
       </c>
@@ -4682,8 +4931,12 @@
         <f t="shared" si="0"/>
         <v>00:28:27</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K60" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>129</v>
       </c>
@@ -4713,8 +4966,12 @@
         <f t="shared" si="0"/>
         <v>00:28:34</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K61" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>131</v>
       </c>
@@ -4744,8 +5001,12 @@
         <f t="shared" si="0"/>
         <v>00:28:39</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K62" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>133</v>
       </c>
@@ -4775,8 +5036,12 @@
         <f t="shared" si="0"/>
         <v>00:28:51</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K63" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>135</v>
       </c>
@@ -4808,8 +5073,12 @@
         <f t="shared" si="0"/>
         <v>00:29:02</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K64" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>137</v>
       </c>
@@ -4839,8 +5108,12 @@
         <f t="shared" si="0"/>
         <v>00:29:03</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K65" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>133</v>
       </c>
@@ -4872,8 +5145,12 @@
         <f t="shared" si="0"/>
         <v>00:29:10</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K66" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>140</v>
       </c>
@@ -4902,11 +5179,15 @@
         <v>15</v>
       </c>
       <c r="J67" s="6" t="str">
-        <f t="shared" ref="J67:J108" si="1">TEXT(F67,"hh:mm:ss")</f>
+        <f t="shared" ref="J67:J108" si="2">TEXT(F67,"hh:mm:ss")</f>
         <v>00:29:12</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K67" s="9" t="str">
+        <f t="shared" ref="K67:K108" si="3">IF(LEFT(D67,1)="M","M","F")</f>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>143</v>
       </c>
@@ -4935,11 +5216,15 @@
         <v>15</v>
       </c>
       <c r="J68" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:29:20</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K68" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>145</v>
       </c>
@@ -4968,11 +5253,15 @@
         <v>5</v>
       </c>
       <c r="J69" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:29:22</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K69" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>147</v>
       </c>
@@ -4999,11 +5288,15 @@
         <v>6</v>
       </c>
       <c r="J70" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:29:32</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K70" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>149</v>
       </c>
@@ -5032,11 +5325,15 @@
         <v>15</v>
       </c>
       <c r="J71" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:29:45</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K71" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>151</v>
       </c>
@@ -5065,11 +5362,15 @@
         <v>16</v>
       </c>
       <c r="J72" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:29:50</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K72" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>154</v>
       </c>
@@ -5098,11 +5399,15 @@
         <v>16</v>
       </c>
       <c r="J73" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:29:50</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K73" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>155</v>
       </c>
@@ -5129,11 +5434,15 @@
         <v>6</v>
       </c>
       <c r="J74" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:30:02</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K74" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>118</v>
       </c>
@@ -5162,11 +5471,15 @@
         <v>17</v>
       </c>
       <c r="J75" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:30:06</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K75" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>127</v>
       </c>
@@ -5195,11 +5508,15 @@
         <v>17</v>
       </c>
       <c r="J76" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:30:33</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K76" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>158</v>
       </c>
@@ -5226,11 +5543,15 @@
         <v>7</v>
       </c>
       <c r="J77" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:30:36</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K77" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>113</v>
       </c>
@@ -5259,11 +5580,15 @@
         <v>7</v>
       </c>
       <c r="J78" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:30:38</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K78" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>161</v>
       </c>
@@ -5290,11 +5615,15 @@
         <v>8</v>
       </c>
       <c r="J79" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:30:44</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K79" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>163</v>
       </c>
@@ -5323,11 +5652,15 @@
         <v>4</v>
       </c>
       <c r="J80" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:31:12</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K80" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>165</v>
       </c>
@@ -5356,11 +5689,15 @@
         <v>18</v>
       </c>
       <c r="J81" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:31:15</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K81" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>168</v>
       </c>
@@ -5389,11 +5726,15 @@
         <v>9</v>
       </c>
       <c r="J82" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:31:15</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K82" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>171</v>
       </c>
@@ -5420,11 +5761,15 @@
         <v>8</v>
       </c>
       <c r="J83" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:31:27</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K83" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>173</v>
       </c>
@@ -5453,11 +5798,15 @@
         <v>1</v>
       </c>
       <c r="J84" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:31:29</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K84" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>176</v>
       </c>
@@ -5484,11 +5833,15 @@
         <v>16</v>
       </c>
       <c r="J85" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:31:30</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K85" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>178</v>
       </c>
@@ -5517,11 +5870,15 @@
         <v>9</v>
       </c>
       <c r="J86" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:31:34</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K86" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>180</v>
       </c>
@@ -5550,11 +5907,15 @@
         <v>10</v>
       </c>
       <c r="J87" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:31:39</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K87" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>182</v>
       </c>
@@ -5581,11 +5942,15 @@
         <v>10</v>
       </c>
       <c r="J88" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:31:52</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K88" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>0</v>
       </c>
@@ -5614,11 +5979,15 @@
         <v>12</v>
       </c>
       <c r="J89" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:31:54</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K89" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>186</v>
       </c>
@@ -5645,11 +6014,15 @@
         <v>11</v>
       </c>
       <c r="J90" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:31:56</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K90" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
@@ -5678,11 +6051,15 @@
         <v>19</v>
       </c>
       <c r="J91" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:32:29</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K91" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>189</v>
       </c>
@@ -5709,11 +6086,15 @@
         <v>2</v>
       </c>
       <c r="J92" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:32:40</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K92" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>191</v>
       </c>
@@ -5742,11 +6123,15 @@
         <v>3</v>
       </c>
       <c r="J93" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:32:57</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K93" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>193</v>
       </c>
@@ -5775,11 +6160,15 @@
         <v>5</v>
       </c>
       <c r="J94" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:33:12</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K94" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>195</v>
       </c>
@@ -5808,11 +6197,15 @@
         <v>20</v>
       </c>
       <c r="J95" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:33:23</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K95" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>198</v>
       </c>
@@ -5839,11 +6232,15 @@
         <v>11</v>
       </c>
       <c r="J96" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:33:50</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K96" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>200</v>
       </c>
@@ -5870,11 +6267,15 @@
         <v>12</v>
       </c>
       <c r="J97" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:34:12</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K97" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>202</v>
       </c>
@@ -5901,11 +6302,15 @@
         <v>13</v>
       </c>
       <c r="J98" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:34:15</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K98" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>204</v>
       </c>
@@ -5932,11 +6337,15 @@
         <v>4</v>
       </c>
       <c r="J99" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:34:42</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K99" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>113</v>
       </c>
@@ -5965,11 +6374,15 @@
         <v>14</v>
       </c>
       <c r="J100" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:34:55</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K100" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>208</v>
       </c>
@@ -5998,11 +6411,15 @@
         <v>12</v>
       </c>
       <c r="J101" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:35:08</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K101" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>171</v>
       </c>
@@ -6029,11 +6446,15 @@
         <v>15</v>
       </c>
       <c r="J102" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:36:26</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K102" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>210</v>
       </c>
@@ -6060,11 +6481,15 @@
         <v>1</v>
       </c>
       <c r="J103" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:36:40</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K103" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>213</v>
       </c>
@@ -6091,11 +6516,15 @@
         <v>16</v>
       </c>
       <c r="J104" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:36:55</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K104" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>214</v>
       </c>
@@ -6124,11 +6553,15 @@
         <v>13</v>
       </c>
       <c r="J105" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:37:42</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K105" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>217</v>
       </c>
@@ -6157,11 +6590,15 @@
         <v>18</v>
       </c>
       <c r="J106" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:37:43</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K106" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>219</v>
       </c>
@@ -6188,11 +6625,15 @@
         <v>21</v>
       </c>
       <c r="J107" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:38:55</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K107" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>41</v>
       </c>
@@ -6221,8 +6662,12 @@
         <v>19</v>
       </c>
       <c r="J108" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>00:38:56</v>
+      </c>
+      <c r="K108" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>M</v>
       </c>
     </row>
   </sheetData>
